--- a/StackFinDemo/src/test/resources/TestData/UserDetails.xlsx
+++ b/StackFinDemo/src/test/resources/TestData/UserDetails.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\VCN.DS.VOLVO.NET\CLI-HM\HM1074\a215776\My Documents\SeleniumAss\StackFinDemo\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git\AppiumMobile\StackFinDemo\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453FF0E0-E0D8-4A70-9528-AD6CEB29133F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A7D52F-39A7-4364-A675-2B74B51C0D98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>UserName</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>shashikumar.cd@gmail.com</t>
-  </si>
-  <si>
-    <t>Shashi@87</t>
   </si>
   <si>
     <t>StackPin</t>
@@ -361,7 +358,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,19 +375,14 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>198706</v>
-      </c>
+      <c r="C2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
